--- a/数据整理/stocks/A股/创业板/301035-润丰股份.xlsx
+++ b/数据整理/stocks/A股/创业板/301035-润丰股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1799,7 +1800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1810,17 +1811,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1830,13 +1851,977 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2631</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3708</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5562</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3471</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0106</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9428</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>43.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8816</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6868</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5343</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4716</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4600</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4531</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3741</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3383</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3067</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2829</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2388</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002197</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰鑫策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>34</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>13.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/301035-润丰股份.xlsx
+++ b/数据整理/stocks/A股/创业板/301035-润丰股份.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D2" t="n">
-        <v>16.93</v>
+        <v>24.35</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>34</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>13.14</v>
       </c>
     </row>
@@ -515,6 +532,2182 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4561</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1567</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9450</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5810</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0848</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9698</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8334</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8196</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7680</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7532</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7230</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6235</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5872</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5242</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5118</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4860</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4826</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>53.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3784</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3517</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3183</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2923</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2736</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>65.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>68.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>74.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014627</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>61.59</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>61.59</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>68.90</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>016616</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>016399</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>74.34</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1482,7 +3675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/301035-润丰股份.xlsx
+++ b/数据整理/stocks/A股/创业板/301035-润丰股份.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>24.35</v>
+        <v>17.74</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>16.93</v>
+        <v>24.35</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>34</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>13.14</v>
       </c>
     </row>
@@ -532,6 +549,1350 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1074</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3592</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3544</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2353</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0357</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7049</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6517</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5337</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5231</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4937</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3978</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3612</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3443</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>53.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2823</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2118</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大摩ESG量化混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>63.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011907</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>016616</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2707,7 +4068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3675,7 +5036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
